--- a/csv/svm/svm_pc25sigmoid_final.xlsx
+++ b/csv/svm/svm_pc25sigmoid_final.xlsx
@@ -101,10 +101,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.18518518518518517</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05737753105492469</v>
+        <v>0.03795166950355407</v>
       </c>
     </row>
   </sheetData>
@@ -172,19 +172,19 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -198,16 +198,16 @@
         <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="E4" t="n">
         <v>1.0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -221,16 +221,16 @@
         <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E5" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -244,13 +244,13 @@
         <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E6" t="n">
         <v>5.0</v>
       </c>
       <c r="F6" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -267,16 +267,16 @@
         <v>0.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E7" t="n">
         <v>0.0</v>
       </c>
       <c r="F7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="G7" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
   </sheetData>
